--- a/todo/todo.xlsx
+++ b/todo/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubw1szh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DE39C5-F1E3-4F9A-935E-DDADE4512596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5103F5F-A9F4-41C1-A34C-CD246F4803C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Overview</t>
   </si>
@@ -198,6 +198,377 @@
         <family val="2"/>
       </rPr>
       <t>slam</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Stage1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>----Week8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last week</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>bag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集复现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>lvi-sam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比对训练效果
+2. 在图像前端特征做改进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>在回环检测做改进
+4. 阅读更多的lvi-sam融合论文</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>slam
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看完参数分析</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Easyused
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>docker</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">翻译，开会
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ppt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_42722197/article/details/118125182 回环DL
+https://www.codetd.com/article/15213506
+https://ieeexplore.ieee.org/abstract/document/10397423
+https://github.com/jagennath-hari/FusionSLAM-Unifying-Instant-NGP-for-Monocular-SLAM
+superglue+SLAM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们计划把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>camer pipline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弄起来。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你明天找我下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载以下的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包。按照里面的文档参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>7V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置把相关的以太网测试工具跑起来。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+J5 SDK path: \\bosch.com\dfsrb\DfsCN\DIV\XC\Engineering\domain\DA\01_General_Info\W2\j5sdkv1.2.5.tar.gz</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -206,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +650,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +687,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,26 +731,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -356,8 +746,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,95 +1050,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.75" style="9" customWidth="1"/>
-    <col min="2" max="2" width="113.625" customWidth="1"/>
-    <col min="3" max="3" width="106.375" customWidth="1"/>
+    <col min="1" max="1" width="46.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="113.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="106.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="69.75">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42.75">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="36">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" ht="69.75">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="128.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/todo/todo.xlsx
+++ b/todo/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubw1szh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5103F5F-A9F4-41C1-A34C-CD246F4803C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB6AEA8-C09A-4C9B-9A2E-29AAABA3B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Overview</t>
   </si>
@@ -296,42 +296,6 @@
       </rPr>
       <t>在回环检测做改进
 4. 阅读更多的lvi-sam融合论文</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看完</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>slam
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看完参数分析</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -572,16 +536,87 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>slam
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看完参数分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stage1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>----Week9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+  </si>
+  <si>
+    <t>1. gateway 3.0
+2. C++工程 + CAN
+3. j6e</t>
+  </si>
+  <si>
+    <t>1.看完slam
+2.完成创新</t>
+  </si>
+  <si>
+    <t>危机意识</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -602,13 +637,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -617,14 +652,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,7 +673,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -670,8 +705,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -760,13 +807,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1050,20 +1103,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="113.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="106.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="113.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>5</v>
@@ -1072,21 +1125,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="18">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1097,19 +1150,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" ht="69.75">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" ht="63">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42.75">
+    <row r="8" spans="1:3" ht="60">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1129,66 +1182,108 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" ht="36">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="A10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" ht="69.75">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="72">
+    <row r="12" spans="1:3" ht="83.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="128.25">
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="135">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="18">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" ht="70.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="54">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
